--- a/ExcelFiles/PatientSummary.xlsx
+++ b/ExcelFiles/PatientSummary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Riomed\DemoServerAutomation\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A49EB20-1111-4B8D-9C70-629EC85DC3F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD83D5F8-62B7-4702-811F-64B4471EE7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="20" activeTab="24" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" firstSheet="33" activeTab="36" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="loginDetails" sheetId="2" r:id="rId1"/>
@@ -883,9 +883,6 @@
     <t>Added Notes for Overview</t>
   </si>
   <si>
-    <t>Overview Sub</t>
-  </si>
-  <si>
     <t>Overview Edited</t>
   </si>
   <si>
@@ -2216,6 +2213,9 @@
   </si>
   <si>
     <t xml:space="preserve">Allergy to house dust mite </t>
+  </si>
+  <si>
+    <t>Sub Category</t>
   </si>
 </sst>
 </file>
@@ -2609,18 +2609,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
   </sheetData>
@@ -3114,16 +3114,16 @@
         <v>159</v>
       </c>
       <c r="I2" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>157</v>
       </c>
       <c r="L2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="M2" t="s">
         <v>188</v>
@@ -3435,22 +3435,22 @@
     </row>
     <row r="2" spans="1:48" s="2" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>639</v>
-      </c>
       <c r="H2" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I2" s="13" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>51</v>
@@ -3570,7 +3570,7 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2" t="s">
         <v>131</v>
@@ -3633,7 +3633,7 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2" t="s">
         <v>117</v>
@@ -3684,7 +3684,7 @@
         <v>170</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C2" t="s">
         <v>123</v>
@@ -3747,14 +3747,14 @@
         <v>192</v>
       </c>
       <c r="B2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C2" t="s">
         <v>163</v>
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>07/01/2026</v>
+        <v>21/02/2026</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>196</v>
@@ -3763,10 +3763,10 @@
         <v>193</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>278</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>279</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>280</v>
       </c>
       <c r="I2" s="7"/>
     </row>
@@ -3826,14 +3826,14 @@
         <v>192</v>
       </c>
       <c r="B2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C2" t="s">
         <v>163</v>
       </c>
       <c r="D2" s="6" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>07/01/2026</v>
+        <v>21/02/2026</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>197</v>
@@ -3842,10 +3842,10 @@
         <v>193</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="H2" s="6" t="s">
         <v>280</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3857,7 +3857,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F4129C8-341D-4D38-92A2-748311EBE13A}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3884,7 +3884,7 @@
         <v>192</v>
       </c>
       <c r="B2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C2" t="s">
         <v>123</v>
@@ -3968,19 +3968,19 @@
         <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>103</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>213</v>
@@ -4075,17 +4075,17 @@
         <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C2" s="6">
         <f ca="1">TODAY()</f>
-        <v>46029</v>
+        <v>46074</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>103</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>213</v>
@@ -4145,7 +4145,7 @@
         <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C2" t="s">
         <v>123</v>
@@ -4215,7 +4215,7 @@
         <v>229</v>
       </c>
       <c r="B2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
@@ -4339,7 +4339,7 @@
         <v>229</v>
       </c>
       <c r="B2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
@@ -4404,7 +4404,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B2" t="s">
         <v>123</v>
@@ -4478,7 +4478,7 @@
         <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
@@ -4576,7 +4576,7 @@
         <v>243</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>136</v>
@@ -4635,7 +4635,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B2" t="s">
         <v>254</v>
@@ -4651,7 +4651,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4698,7 +4698,7 @@
         <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>258</v>
+        <v>702</v>
       </c>
       <c r="F2">
         <v>5774961523</v>
@@ -4714,7 +4714,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4747,10 +4747,10 @@
         <v>256</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D2" t="s">
-        <v>258</v>
+        <v>702</v>
       </c>
     </row>
   </sheetData>
@@ -4762,7 +4762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF370ED-86AA-4D7E-B092-14AB12F95410}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -4817,7 +4817,7 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
@@ -4825,16 +4825,16 @@
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" t="s">
         <v>261</v>
-      </c>
-      <c r="D2" t="s">
-        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -4866,7 +4866,7 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
@@ -4874,16 +4874,16 @@
     </row>
     <row r="2" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -4942,7 +4942,7 @@
         <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E1" t="s">
         <v>70</v>
@@ -5037,13 +5037,13 @@
         <v>220</v>
       </c>
       <c r="B2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E2" t="s">
         <v>71</v>
@@ -5061,10 +5061,10 @@
         <v>103</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>631</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>632</v>
       </c>
       <c r="L2" t="s">
         <v>176</v>
@@ -5160,10 +5160,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C2" t="s">
         <v>123</v>
@@ -5198,7 +5198,7 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
@@ -5206,16 +5206,16 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -5247,7 +5247,7 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
@@ -5255,16 +5255,16 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>644</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>271</v>
-      </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -5300,13 +5300,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5337,7 +5337,7 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
@@ -5345,16 +5345,16 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -5386,7 +5386,7 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
@@ -5394,16 +5394,16 @@
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B2" t="s">
+        <v>697</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="B2" t="s">
-        <v>698</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>276</v>
-      </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -5439,13 +5439,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5480,69 +5480,69 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
       </c>
       <c r="E1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" t="s">
         <v>285</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>286</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>287</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>288</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>289</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>290</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>291</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>292</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>293</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>294</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>295</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>296</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>204</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H2" t="s">
         <v>131</v>
@@ -5551,28 +5551,28 @@
         <v>100</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K2" t="s">
         <v>98</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -5608,81 +5608,81 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D1" t="s">
         <v>126</v>
       </c>
       <c r="E1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" t="s">
         <v>285</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>286</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>287</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>288</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>289</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>290</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>291</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>292</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>293</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>294</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>295</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>296</v>
       </c>
-      <c r="Q1" t="s">
-        <v>297</v>
-      </c>
       <c r="R1" t="s">
+        <v>309</v>
+      </c>
+      <c r="S1" t="s">
         <v>310</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>311</v>
       </c>
-      <c r="T1" t="s">
-        <v>312</v>
-      </c>
       <c r="U1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B2" t="s">
+        <v>696</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D2" t="s">
         <v>282</v>
       </c>
-      <c r="B2" t="s">
-        <v>697</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" t="s">
+        <v>305</v>
+      </c>
+      <c r="G2" t="s">
         <v>307</v>
-      </c>
-      <c r="D2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F2" t="s">
-        <v>306</v>
-      </c>
-      <c r="G2" t="s">
-        <v>308</v>
       </c>
       <c r="H2" t="s">
         <v>131</v>
@@ -5691,40 +5691,40 @@
         <v>100</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K2" t="s">
         <v>98</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="R2" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="S2" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="S2" s="5" t="s">
+      <c r="T2" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>314</v>
-      </c>
-      <c r="T2" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -5757,13 +5757,13 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D1" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F1" t="s">
         <v>126</v>
@@ -5771,22 +5771,22 @@
     </row>
     <row r="2" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" t="s">
         <v>321</v>
-      </c>
-      <c r="F2" t="s">
-        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -5835,7 +5835,7 @@
         <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E1" t="s">
         <v>70</v>
@@ -5907,7 +5907,7 @@
         <v>113</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E2" t="s">
         <v>86</v>
@@ -5991,13 +5991,13 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D1" t="s">
         <v>132</v>
       </c>
       <c r="E1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F1" t="s">
         <v>126</v>
@@ -6005,22 +6005,22 @@
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B2" t="s">
+        <v>317</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="D2" s="6" t="s">
-        <v>320</v>
-      </c>
       <c r="E2" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -6055,13 +6055,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -6096,21 +6096,21 @@
         <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" t="s">
         <v>326</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>327</v>
-      </c>
-      <c r="D2" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -6146,21 +6146,21 @@
         <v>126</v>
       </c>
       <c r="D1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C2" t="s">
         <v>326</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>327</v>
-      </c>
-      <c r="D2" t="s">
-        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -6196,13 +6196,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>326</v>
-      </c>
       <c r="C2" s="5" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -6236,67 +6236,67 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1" t="s">
         <v>676</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>677</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>678</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>679</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>680</v>
       </c>
-      <c r="F1" t="s">
-        <v>681</v>
-      </c>
       <c r="G1" t="s">
+        <v>329</v>
+      </c>
+      <c r="H1" t="s">
         <v>330</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>331</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>332</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>333</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>334</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>335</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>336</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>337</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>338</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>339</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>340</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>341</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>342</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>343</v>
-      </c>
-      <c r="U1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -6304,64 +6304,64 @@
         <v>220</v>
       </c>
       <c r="B2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C2" t="s">
         <v>682</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>683</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>684</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>686</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="I2" s="16" t="s">
+      <c r="J2" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="J2" s="16" t="s">
+      <c r="K2" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="K2" s="16" t="s">
+      <c r="L2" t="s">
         <v>348</v>
       </c>
-      <c r="L2" t="s">
-        <v>349</v>
-      </c>
       <c r="M2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N2" t="s">
         <v>98</v>
       </c>
       <c r="O2" t="s">
+        <v>349</v>
+      </c>
+      <c r="P2" t="s">
         <v>350</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>351</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>352</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="T2" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="T2" s="5" t="s">
+      <c r="U2" t="s">
         <v>354</v>
-      </c>
-      <c r="U2" t="s">
-        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -6392,58 +6392,58 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>675</v>
+      </c>
+      <c r="B1" t="s">
         <v>676</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>677</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>678</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>679</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>680</v>
       </c>
-      <c r="F1" t="s">
-        <v>681</v>
-      </c>
       <c r="G1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H1" t="s">
+        <v>355</v>
+      </c>
+      <c r="I1" t="s">
         <v>356</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>334</v>
+      </c>
+      <c r="K1" t="s">
+        <v>335</v>
+      </c>
+      <c r="L1" t="s">
+        <v>336</v>
+      </c>
+      <c r="M1" t="s">
+        <v>337</v>
+      </c>
+      <c r="N1" t="s">
         <v>357</v>
       </c>
-      <c r="J1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K1" t="s">
-        <v>336</v>
-      </c>
-      <c r="L1" t="s">
-        <v>337</v>
-      </c>
-      <c r="M1" t="s">
-        <v>338</v>
-      </c>
-      <c r="N1" t="s">
-        <v>358</v>
-      </c>
       <c r="O1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="P1" t="s">
+        <v>341</v>
+      </c>
+      <c r="Q1" t="s">
         <v>342</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>343</v>
-      </c>
-      <c r="R1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.25">
@@ -6451,55 +6451,55 @@
         <v>220</v>
       </c>
       <c r="B2" t="s">
+        <v>681</v>
+      </c>
+      <c r="C2" t="s">
         <v>682</v>
       </c>
-      <c r="C2" t="s">
-        <v>683</v>
-      </c>
       <c r="D2" t="s">
+        <v>687</v>
+      </c>
+      <c r="E2" t="s">
         <v>688</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" t="s">
+        <v>344</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>686</v>
+      </c>
+      <c r="I2" s="16" t="s">
         <v>690</v>
       </c>
-      <c r="G2" t="s">
-        <v>345</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>687</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>691</v>
-      </c>
       <c r="J2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L2" t="s">
         <v>98</v>
       </c>
       <c r="M2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="N2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="O2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="Q2" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="R2" t="s">
         <v>354</v>
-      </c>
-      <c r="R2" t="s">
-        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -6519,37 +6519,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>691</v>
+      </c>
+      <c r="B1" t="s">
         <v>692</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>356</v>
+      </c>
+      <c r="D1" t="s">
+        <v>296</v>
+      </c>
+      <c r="E1" t="s">
         <v>693</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
+        <v>694</v>
+      </c>
+      <c r="G1" t="s">
         <v>357</v>
       </c>
-      <c r="D1" t="s">
-        <v>297</v>
-      </c>
-      <c r="E1" t="s">
-        <v>694</v>
-      </c>
-      <c r="F1" t="s">
-        <v>695</v>
-      </c>
-      <c r="G1" t="s">
-        <v>358</v>
-      </c>
       <c r="H1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I1" t="s">
+        <v>341</v>
+      </c>
+      <c r="J1" t="s">
         <v>342</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>343</v>
-      </c>
-      <c r="K1" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -6563,19 +6563,19 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="D2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="F2" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I2">
         <v>8</v>
@@ -6584,7 +6584,7 @@
         <v>70</v>
       </c>
       <c r="K2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -6625,93 +6625,93 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" t="s">
         <v>366</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>367</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>368</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>369</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>370</v>
       </c>
-      <c r="H1" t="s">
-        <v>371</v>
-      </c>
       <c r="I1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N1" t="s">
+        <v>387</v>
+      </c>
+      <c r="O1" t="s">
         <v>388</v>
-      </c>
-      <c r="O1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H2" t="s">
+        <v>376</v>
+      </c>
+      <c r="I2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J2" t="s">
+        <v>380</v>
+      </c>
+      <c r="K2" t="s">
+        <v>382</v>
+      </c>
+      <c r="L2" t="s">
+        <v>384</v>
+      </c>
+      <c r="M2" t="s">
+        <v>386</v>
+      </c>
+      <c r="N2" t="s">
         <v>391</v>
       </c>
-      <c r="B2" t="s">
-        <v>365</v>
-      </c>
-      <c r="C2" t="s">
-        <v>372</v>
-      </c>
-      <c r="D2" t="s">
-        <v>373</v>
-      </c>
-      <c r="E2" t="s">
-        <v>374</v>
-      </c>
-      <c r="F2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G2" t="s">
-        <v>376</v>
-      </c>
-      <c r="H2" t="s">
-        <v>377</v>
-      </c>
-      <c r="I2" t="s">
-        <v>379</v>
-      </c>
-      <c r="J2" t="s">
-        <v>381</v>
-      </c>
-      <c r="K2" t="s">
-        <v>383</v>
-      </c>
-      <c r="L2" t="s">
-        <v>385</v>
-      </c>
-      <c r="M2" t="s">
-        <v>387</v>
-      </c>
-      <c r="N2" t="s">
-        <v>392</v>
-      </c>
       <c r="O2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -6752,93 +6752,93 @@
         <v>68</v>
       </c>
       <c r="C1" t="s">
+        <v>365</v>
+      </c>
+      <c r="D1" t="s">
         <v>366</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>367</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>368</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>369</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>370</v>
       </c>
-      <c r="H1" t="s">
-        <v>371</v>
-      </c>
       <c r="I1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="J1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M1" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="N1" t="s">
+        <v>387</v>
+      </c>
+      <c r="O1" t="s">
         <v>388</v>
-      </c>
-      <c r="O1" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D2" t="s">
         <v>372</v>
       </c>
-      <c r="D2" t="s">
-        <v>373</v>
-      </c>
       <c r="E2" t="s">
+        <v>392</v>
+      </c>
+      <c r="F2" t="s">
+        <v>374</v>
+      </c>
+      <c r="G2" t="s">
+        <v>375</v>
+      </c>
+      <c r="H2" t="s">
         <v>393</v>
       </c>
-      <c r="F2" t="s">
-        <v>375</v>
-      </c>
-      <c r="G2" t="s">
-        <v>376</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>378</v>
+      </c>
+      <c r="J2" t="s">
+        <v>380</v>
+      </c>
+      <c r="K2" t="s">
         <v>394</v>
       </c>
-      <c r="I2" t="s">
-        <v>379</v>
-      </c>
-      <c r="J2" t="s">
-        <v>381</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>384</v>
+      </c>
+      <c r="M2" t="s">
+        <v>386</v>
+      </c>
+      <c r="N2" t="s">
         <v>395</v>
       </c>
-      <c r="L2" t="s">
-        <v>385</v>
-      </c>
-      <c r="M2" t="s">
-        <v>387</v>
-      </c>
-      <c r="N2" t="s">
-        <v>396</v>
-      </c>
       <c r="O2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="P2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -6926,76 +6926,76 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B1" t="s">
         <v>397</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>398</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>399</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>400</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>401</v>
       </c>
-      <c r="F1" t="s">
-        <v>402</v>
-      </c>
       <c r="G1" t="s">
+        <v>404</v>
+      </c>
+      <c r="H1" t="s">
         <v>405</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>406</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>407</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>408</v>
       </c>
-      <c r="K1" t="s">
-        <v>409</v>
-      </c>
       <c r="L1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B2" s="7" t="str">
         <f ca="1">TEXT(TODAY(), "DD/MM/YYYY")</f>
-        <v>07/01/2026</v>
+        <v>21/02/2026</v>
       </c>
       <c r="C2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D2" t="s">
         <v>403</v>
       </c>
-      <c r="D2" t="s">
-        <v>404</v>
-      </c>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F2" t="s">
         <v>117</v>
       </c>
       <c r="H2" t="s">
+        <v>409</v>
+      </c>
+      <c r="I2" t="s">
         <v>410</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>411</v>
       </c>
-      <c r="J2" t="s">
-        <v>412</v>
-      </c>
       <c r="K2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -7036,63 +7036,63 @@
         <v>126</v>
       </c>
       <c r="E1" t="s">
+        <v>284</v>
+      </c>
+      <c r="F1" t="s">
         <v>285</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>286</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>287</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>288</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>289</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>290</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>291</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>292</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>293</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>294</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>295</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>296</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B2" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>254</v>
       </c>
       <c r="D2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H2" t="s">
         <v>131</v>
@@ -7101,28 +7101,28 @@
         <v>100</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="K2" t="s">
         <v>98</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="N2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="O2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="P2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="Q2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -7163,16 +7163,16 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>421</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>424</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>425</v>
       </c>
     </row>
   </sheetData>
@@ -7209,66 +7209,66 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" t="s">
         <v>426</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>427</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>428</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>429</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>430</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>431</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>432</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>433</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>434</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>435</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>436</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>437</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>438</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>439</v>
-      </c>
-      <c r="O1" t="s">
-        <v>440</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>440</v>
+      </c>
+      <c r="B2" t="s">
         <v>441</v>
       </c>
-      <c r="B2" t="s">
-        <v>442</v>
-      </c>
       <c r="C2" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>444</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>445</v>
       </c>
       <c r="F2" t="str">
         <f>LOWER(G2)</f>
@@ -7282,7 +7282,7 @@
         <v>internal</v>
       </c>
       <c r="I2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J2" t="str">
         <f>LOWER(K2)</f>
@@ -7292,17 +7292,17 @@
         <v>103</v>
       </c>
       <c r="L2" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="M2" t="str">
         <f>LOWER(N2)</f>
         <v>implanted</v>
       </c>
       <c r="N2" t="s">
+        <v>447</v>
+      </c>
+      <c r="O2" s="5" t="s">
         <v>448</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -7340,86 +7340,86 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B1" t="s">
         <v>426</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>427</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>428</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>449</v>
+      </c>
+      <c r="F1" t="s">
         <v>429</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
+        <v>430</v>
+      </c>
+      <c r="H1" t="s">
+        <v>431</v>
+      </c>
+      <c r="I1" t="s">
+        <v>432</v>
+      </c>
+      <c r="J1" t="s">
+        <v>433</v>
+      </c>
+      <c r="K1" t="s">
+        <v>434</v>
+      </c>
+      <c r="L1" t="s">
+        <v>435</v>
+      </c>
+      <c r="M1" t="s">
+        <v>436</v>
+      </c>
+      <c r="N1" t="s">
+        <v>437</v>
+      </c>
+      <c r="O1" t="s">
+        <v>438</v>
+      </c>
+      <c r="P1" t="s">
         <v>450</v>
-      </c>
-      <c r="F1" t="s">
-        <v>430</v>
-      </c>
-      <c r="G1" t="s">
-        <v>431</v>
-      </c>
-      <c r="H1" t="s">
-        <v>432</v>
-      </c>
-      <c r="I1" t="s">
-        <v>433</v>
-      </c>
-      <c r="J1" t="s">
-        <v>434</v>
-      </c>
-      <c r="K1" t="s">
-        <v>435</v>
-      </c>
-      <c r="L1" t="s">
-        <v>436</v>
-      </c>
-      <c r="M1" t="s">
-        <v>437</v>
-      </c>
-      <c r="N1" t="s">
-        <v>438</v>
-      </c>
-      <c r="O1" t="s">
-        <v>439</v>
-      </c>
-      <c r="P1" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C2" t="s">
+        <v>442</v>
+      </c>
+      <c r="D2" t="s">
         <v>452</v>
       </c>
-      <c r="C2" t="s">
-        <v>443</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>453</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="6" t="s">
         <v>454</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>455</v>
       </c>
       <c r="G2" t="str">
         <f>SUBSTITUTE(LOWER(H2)," ","")</f>
         <v>firststage</v>
       </c>
       <c r="H2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I2" t="str">
         <f>LOWER(J2)</f>
         <v>external</v>
       </c>
       <c r="J2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K2" t="str">
         <f>LOWER(L2)</f>
@@ -7429,7 +7429,7 @@
         <v>184</v>
       </c>
       <c r="M2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="N2" t="str">
         <f>LOWER(O2)</f>
@@ -7439,7 +7439,7 @@
         <v>204</v>
       </c>
       <c r="P2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
   </sheetData>
@@ -7472,126 +7472,126 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" t="s">
         <v>460</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>461</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>462</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>463</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>464</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>465</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>466</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>467</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>468</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>469</v>
-      </c>
-      <c r="K1" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>470</v>
+      </c>
+      <c r="B2" t="s">
         <v>471</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>472</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>473</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>474</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>475</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>476</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>477</v>
-      </c>
-      <c r="K2" t="s">
-        <v>478</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C3" t="s">
         <v>480</v>
-      </c>
-      <c r="C3" t="s">
-        <v>481</v>
       </c>
       <c r="D3" t="s">
         <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>482</v>
+      </c>
+      <c r="B4" t="s">
         <v>483</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>484</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>485</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>486</v>
       </c>
-      <c r="E4" t="s">
+      <c r="K4" t="s">
         <v>487</v>
-      </c>
-      <c r="K4" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B5" t="s">
         <v>489</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" t="s">
         <v>491</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>492</v>
       </c>
-      <c r="E5" t="s">
-        <v>493</v>
-      </c>
       <c r="F5" t="s">
+        <v>489</v>
+      </c>
+      <c r="G5" t="s">
         <v>490</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>491</v>
-      </c>
-      <c r="H5" t="s">
-        <v>492</v>
       </c>
       <c r="I5" t="s">
         <v>100</v>
@@ -7600,7 +7600,7 @@
         <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -7640,43 +7640,43 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" t="s">
         <v>460</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>461</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>462</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>463</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>464</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>465</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>466</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>467</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>468</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>469</v>
       </c>
-      <c r="K1" t="s">
-        <v>470</v>
-      </c>
       <c r="L1" t="s">
+        <v>494</v>
+      </c>
+      <c r="M1" t="s">
         <v>495</v>
-      </c>
-      <c r="M1" t="s">
-        <v>496</v>
       </c>
       <c r="N1" t="s">
         <v>122</v>
@@ -7684,118 +7684,118 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B2" t="s">
+        <v>496</v>
+      </c>
+      <c r="C2" t="s">
         <v>497</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>498</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>499</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>500</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>501</v>
       </c>
-      <c r="G2" t="s">
+      <c r="K2" t="s">
         <v>502</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="M2" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="N2" t="s">
         <v>504</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="N2" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B3" t="s">
+        <v>505</v>
+      </c>
+      <c r="C3" t="s">
         <v>506</v>
-      </c>
-      <c r="C3" t="s">
-        <v>507</v>
       </c>
       <c r="D3" t="s">
         <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="N3" t="s">
         <v>504</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="N3" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C4" t="s">
         <v>509</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>510</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>511</v>
       </c>
-      <c r="E4" t="s">
+      <c r="K4" t="s">
         <v>512</v>
       </c>
-      <c r="K4" t="s">
-        <v>513</v>
-      </c>
       <c r="L4" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="N4" t="s">
         <v>504</v>
-      </c>
-      <c r="M4" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="N4" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>488</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D5" t="s">
+        <v>492</v>
+      </c>
+      <c r="E5" t="s">
         <v>489</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="F5" t="s">
+        <v>490</v>
+      </c>
+      <c r="G5" t="s">
         <v>491</v>
       </c>
-      <c r="C5" t="s">
-        <v>492</v>
-      </c>
-      <c r="D5" t="s">
-        <v>493</v>
-      </c>
-      <c r="E5" t="s">
-        <v>490</v>
-      </c>
-      <c r="F5" t="s">
-        <v>491</v>
-      </c>
-      <c r="G5" t="s">
-        <v>492</v>
-      </c>
       <c r="H5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I5" t="s">
         <v>60</v>
@@ -7804,16 +7804,16 @@
         <v>60</v>
       </c>
       <c r="K5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L5" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="N5" t="s">
         <v>504</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="N5" t="s">
-        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -7856,160 +7856,160 @@
         <v>68</v>
       </c>
       <c r="B1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C1" t="s">
         <v>515</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>516</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>517</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>518</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>519</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>520</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>521</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>522</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>523</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>524</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>525</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>526</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>527</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>528</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>529</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>530</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>531</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>532</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>533</v>
-      </c>
-      <c r="U1" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B2" t="s">
         <v>535</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>536</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>537</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>538</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>539</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>540</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>541</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>542</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>543</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>544</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>545</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>546</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>547</v>
       </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>548</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>549</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>550</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>551</v>
       </c>
-      <c r="S2" t="s">
-        <v>552</v>
-      </c>
       <c r="U2" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>552</v>
+      </c>
+      <c r="B3" t="s">
         <v>553</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>554</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>312</v>
+      </c>
+      <c r="O3" t="s">
         <v>555</v>
       </c>
-      <c r="D3" t="s">
-        <v>313</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="T3" t="s">
         <v>556</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>557</v>
-      </c>
-      <c r="U3" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>558</v>
+      </c>
+      <c r="O4" t="s">
         <v>559</v>
       </c>
-      <c r="O4" t="s">
+      <c r="T4" t="s">
         <v>560</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>561</v>
-      </c>
-      <c r="U4" t="s">
-        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -8055,70 +8055,70 @@
         <v>68</v>
       </c>
       <c r="B1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C1" t="s">
         <v>515</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>516</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>517</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>518</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>519</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>520</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>521</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>522</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>523</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>524</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>525</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>526</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>527</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>528</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>529</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>530</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>531</v>
       </c>
-      <c r="S1" t="s">
-        <v>532</v>
-      </c>
       <c r="T1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="U1" t="s">
         <v>132</v>
       </c>
       <c r="V1" t="s">
+        <v>562</v>
+      </c>
+      <c r="W1" t="s">
         <v>563</v>
-      </c>
-      <c r="W1" t="s">
-        <v>564</v>
       </c>
       <c r="X1" t="s">
         <v>122</v>
@@ -8126,93 +8126,93 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>534</v>
+      </c>
+      <c r="B2" t="s">
+        <v>539</v>
+      </c>
+      <c r="C2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D2" t="s">
+        <v>564</v>
+      </c>
+      <c r="E2" t="s">
+        <v>565</v>
+      </c>
+      <c r="F2" t="s">
         <v>535</v>
       </c>
-      <c r="B2" t="s">
-        <v>540</v>
-      </c>
-      <c r="C2" t="s">
-        <v>541</v>
-      </c>
-      <c r="D2" t="s">
-        <v>565</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
+        <v>536</v>
+      </c>
+      <c r="H2" t="s">
         <v>566</v>
       </c>
-      <c r="F2" t="s">
-        <v>536</v>
-      </c>
-      <c r="G2" t="s">
-        <v>537</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>545</v>
+      </c>
+      <c r="J2" t="s">
+        <v>546</v>
+      </c>
+      <c r="K2" t="s">
         <v>567</v>
       </c>
-      <c r="I2" t="s">
-        <v>546</v>
-      </c>
-      <c r="J2" t="s">
-        <v>547</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
+        <v>542</v>
+      </c>
+      <c r="M2" t="s">
+        <v>543</v>
+      </c>
+      <c r="N2" t="s">
         <v>568</v>
       </c>
-      <c r="L2" t="s">
-        <v>543</v>
-      </c>
-      <c r="M2" t="s">
-        <v>544</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="P2" t="s">
         <v>569</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>570</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>571</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>572</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>534</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="T2" t="s">
-        <v>535</v>
-      </c>
-      <c r="U2" s="5" t="s">
+      <c r="V2" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="W2" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="X2" t="s">
         <v>574</v>
-      </c>
-      <c r="V2" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="W2" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="X2" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>575</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>576</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>577</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>578</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>186</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -8223,45 +8223,45 @@
       <c r="M3" s="5"/>
       <c r="N3" s="5"/>
       <c r="O3" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="T3" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="V3" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="W3" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="X3" t="s">
         <v>574</v>
-      </c>
-      <c r="W3" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="X3" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>581</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="O4" t="s">
         <v>582</v>
       </c>
-      <c r="O4" t="s">
+      <c r="T4" t="s">
+        <v>561</v>
+      </c>
+      <c r="V4" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="T4" t="s">
-        <v>562</v>
-      </c>
-      <c r="V4" s="5" t="s">
-        <v>584</v>
-      </c>
       <c r="W4" s="5" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="X4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
@@ -8318,108 +8318,108 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B1" t="s">
         <v>585</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>586</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>587</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>588</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>589</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>590</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>591</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>592</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>593</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>594</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>595</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>596</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>597</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>598</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>599</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>600</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B2" t="s">
+        <v>601</v>
+      </c>
+      <c r="C2" t="s">
         <v>602</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="6" t="s">
         <v>603</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>604</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" t="s">
         <v>605</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>606</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>607</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>608</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>609</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>610</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>611</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>612</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>613</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>614</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>615</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" s="10" t="s">
         <v>616</v>
-      </c>
-      <c r="Q2" s="10" t="s">
-        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -8458,121 +8458,121 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B1" t="s">
         <v>585</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>617</v>
+      </c>
+      <c r="D1" t="s">
         <v>586</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
+        <v>587</v>
+      </c>
+      <c r="F1" t="s">
+        <v>588</v>
+      </c>
+      <c r="G1" t="s">
         <v>618</v>
       </c>
-      <c r="D1" t="s">
-        <v>587</v>
-      </c>
-      <c r="E1" t="s">
-        <v>588</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>589</v>
       </c>
-      <c r="G1" t="s">
-        <v>619</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>590</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>591</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>592</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>593</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>594</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>595</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>596</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>597</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>598</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>599</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>600</v>
-      </c>
-      <c r="S1" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C2" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D2" t="str">
         <f>LOWER(C2)</f>
         <v>withdrawn</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="H2" t="s">
+        <v>605</v>
+      </c>
+      <c r="I2" t="s">
         <v>606</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>607</v>
       </c>
-      <c r="J2" t="s">
-        <v>608</v>
-      </c>
       <c r="K2" t="s">
+        <v>620</v>
+      </c>
+      <c r="L2" t="s">
         <v>621</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>622</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>623</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>624</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>625</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>626</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>627</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" s="10" t="s">
         <v>628</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -8596,130 +8596,130 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>645</v>
+      </c>
+      <c r="B1" t="s">
         <v>646</v>
-      </c>
-      <c r="B1" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>649</v>
+      </c>
+      <c r="B6" s="14" t="s">
         <v>650</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>651</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
+        <v>665</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>666</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
+        <v>653</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>654</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>670</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -8784,7 +8784,7 @@
         <v>214</v>
       </c>
       <c r="C2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D2" t="s">
         <v>125</v>
@@ -8854,7 +8854,7 @@
         <v>198</v>
       </c>
       <c r="B2" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C2" t="s">
         <v>125</v>
@@ -8875,6 +8875,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -9129,7 +9138,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
@@ -9140,16 +9149,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1EC2FBF-A56D-40AC-8C09-CB1DCD191DD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9168,7 +9176,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -9177,12 +9185,4 @@
     <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>